--- a/biology/Zoologie/Aegires_minor/Aegires_minor.xlsx
+++ b/biology/Zoologie/Aegires_minor/Aegires_minor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegires minor, ou Notodoris minor, est une espèce de nudibranches de la famille des Aegiridae.  
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peut mesurer plus de 14 cm. 
 La couleur dominante du corps de l'animal est jaune vif avec un réseau de traits noirs dont la densité peut varier.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans la zone tropicale de la zone Indo-ouest Pacifique, de l'archipel des Mascareignes à l'Australie.
 </t>
@@ -576,9 +592,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat est la zone récifale externe sur les sommets ou sur les pentes, fréquemment rencontrée entre 3 m et 24 m[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la zone récifale externe sur les sommets ou sur les pentes, fréquemment rencontrée entre 3 m et 24 m.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Notodoris est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie.
 </t>
@@ -638,9 +658,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Notodoris minor se nourrit principalement, d'après les observations actuelles, d'éponges calcaires de la famille des Leucettidae comme la Pericharax heterographis ou la Leucetta primigenia[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Notodoris minor se nourrit principalement, d'après les observations actuelles, d'éponges calcaires de la famille des Leucettidae comme la Pericharax heterographis ou la Leucetta primigenia.
 </t>
         </is>
       </c>
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Eliot, 1904 : On some nudibranchs from East Africa and Zanzibar. Proceedings of the Zoological Society of London, p. 83–105.</t>
         </is>
